--- a/examples/web_data/smi.xlsx
+++ b/examples/web_data/smi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\Examples\Web_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P_Apps\examples\web_data\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -87,13 +87,13 @@
     <t>Produkte (Anzeige)</t>
   </si>
   <si>
-    <t>ABB (Asea Brown Boveri</t>
+    <t>ABB</t>
   </si>
   <si>
     <t>CH0012221716</t>
   </si>
   <si>
-    <t>17:30:23 14.06.2021</t>
+    <t>17:31:20 18.03.2022</t>
   </si>
   <si>
     <t>Long Short</t>
@@ -105,7 +105,7 @@
     <t>CH0432492467</t>
   </si>
   <si>
-    <t>Credit Suisse (CS</t>
+    <t>Credit Suisse</t>
   </si>
   <si>
     <t>CH0012138530</t>
@@ -123,12 +123,18 @@
     <t>CH0010645932</t>
   </si>
   <si>
-    <t>LafargeHolcim</t>
+    <t>Holcim</t>
   </si>
   <si>
     <t>CH0012214059</t>
   </si>
   <si>
+    <t>Logitech</t>
+  </si>
+  <si>
+    <t>CH0025751329</t>
+  </si>
+  <si>
     <t>Lonza</t>
   </si>
   <si>
@@ -165,7 +171,7 @@
     <t>CH0012032048</t>
   </si>
   <si>
-    <t>SGS SA</t>
+    <t>SGS</t>
   </si>
   <si>
     <t>CH0002497458</t>
@@ -175,12 +181,6 @@
   </si>
   <si>
     <t>CH0418792922</t>
-  </si>
-  <si>
-    <t>Swatch (I</t>
-  </si>
-  <si>
-    <t>CH0012255151</t>
   </si>
   <si>
     <t>Swiss Life</t>
@@ -683,43 +683,43 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>31.03</v>
+        <v>32.8</v>
       </c>
       <c r="D2">
-        <v>30.95</v>
+        <v>32.8</v>
       </c>
       <c r="E2">
-        <v>30.9</v>
+        <v>32.47</v>
       </c>
       <c r="F2">
-        <v>31.18</v>
-      </c>
-      <c r="G2">
-        <v>0.08</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.0026</v>
+        <v>33.17</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-0.09</v>
+      </c>
+      <c r="H2" s="5">
+        <v>-0.0027</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2">
-        <v>2.96</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.1044</v>
-      </c>
-      <c r="L2">
-        <v>7.27</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.3025</v>
+      <c r="J2" s="4">
+        <v>-1.65</v>
+      </c>
+      <c r="K2" s="5">
+        <v>-0.0483</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-0.61</v>
+      </c>
+      <c r="M2" s="5">
+        <v>-0.0184</v>
       </c>
       <c r="N2">
-        <v>10.63</v>
+        <v>3.92</v>
       </c>
       <c r="O2" s="1">
-        <v>0.5143</v>
+        <v>0.1372</v>
       </c>
       <c r="Q2" t="s">
         <v>20</v>
@@ -733,43 +733,43 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>63.84</v>
+        <v>72.26</v>
       </c>
       <c r="D3">
-        <v>63.32</v>
+        <v>72.26</v>
       </c>
       <c r="E3">
-        <v>63.36</v>
+        <v>70.4</v>
       </c>
       <c r="F3">
-        <v>64.22</v>
+        <v>72.26</v>
       </c>
       <c r="G3">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="H3" s="1">
-        <v>0.0082</v>
+        <v>0.0084</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="4">
-        <v>-2.06</v>
+        <v>-7.88</v>
       </c>
       <c r="K3" s="5">
-        <v>-0.032</v>
-      </c>
-      <c r="L3">
-        <v>5.22</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.0915</v>
+        <v>-0.1009</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-8.16</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-0.1042</v>
       </c>
       <c r="N3">
-        <v>3.32</v>
+        <v>6.44</v>
       </c>
       <c r="O3" s="1">
-        <v>0.0563</v>
+        <v>0.101</v>
       </c>
       <c r="Q3" t="s">
         <v>20</v>
@@ -783,43 +783,43 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>9.57</v>
+        <v>7.59</v>
       </c>
       <c r="D4">
-        <v>9.6</v>
+        <v>7.59</v>
       </c>
       <c r="E4">
-        <v>9.51</v>
+        <v>7.41</v>
       </c>
       <c r="F4">
-        <v>9.62</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-0.0029</v>
+        <v>7.59</v>
+      </c>
+      <c r="G4">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0147</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="4">
-        <v>-3.22</v>
+        <v>-1.14</v>
       </c>
       <c r="K4" s="5">
-        <v>-0.2481</v>
+        <v>-0.1314</v>
       </c>
       <c r="L4" s="4">
-        <v>-1.86</v>
+        <v>-1.95</v>
       </c>
       <c r="M4" s="5">
-        <v>-0.1601</v>
+        <v>-0.2056</v>
       </c>
       <c r="N4" s="4">
-        <v>-0.42</v>
+        <v>-4.48</v>
       </c>
       <c r="O4" s="5">
-        <v>-0.0413</v>
+        <v>-0.3724</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
@@ -833,43 +833,43 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>669.6</v>
+        <v>590.8</v>
       </c>
       <c r="D5">
-        <v>666.2</v>
+        <v>590.8</v>
       </c>
       <c r="E5">
-        <v>665.6</v>
+        <v>581.2</v>
       </c>
       <c r="F5">
-        <v>669.6</v>
+        <v>590.8</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>91.4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.159</v>
-      </c>
-      <c r="L5">
-        <v>139.2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.264</v>
+      <c r="J5" s="4">
+        <v>-135.2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-0.1886</v>
+      </c>
+      <c r="L5" s="4">
+        <v>-163.8</v>
+      </c>
+      <c r="M5" s="5">
+        <v>-0.2197</v>
       </c>
       <c r="N5">
-        <v>194.4</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="1">
-        <v>0.4119</v>
+        <v>0.001</v>
       </c>
       <c r="Q5" t="s">
         <v>20</v>
@@ -883,43 +883,43 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>4230</v>
+        <v>3834</v>
       </c>
       <c r="D6">
-        <v>4228</v>
+        <v>3834</v>
       </c>
       <c r="E6">
-        <v>4212</v>
+        <v>3758</v>
       </c>
       <c r="F6">
-        <v>4253</v>
+        <v>3834</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0005</v>
+        <v>0.01</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="J6">
-        <v>611</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.1749</v>
-      </c>
-      <c r="L6">
-        <v>491</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.1359</v>
+      <c r="J6" s="4">
+        <v>-1071</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-0.2245</v>
+      </c>
+      <c r="L6" s="4">
+        <v>-790</v>
+      </c>
+      <c r="M6" s="5">
+        <v>-0.176</v>
       </c>
       <c r="N6">
-        <v>766</v>
+        <v>141</v>
       </c>
       <c r="O6" s="1">
-        <v>0.2295</v>
+        <v>0.0396</v>
       </c>
       <c r="Q6" t="s">
         <v>20</v>
@@ -933,43 +933,43 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>56.56</v>
+        <v>46.55</v>
       </c>
       <c r="D7">
-        <v>56.6</v>
+        <v>46.55</v>
       </c>
       <c r="E7">
-        <v>56.46</v>
+        <v>45.8</v>
       </c>
       <c r="F7">
-        <v>57.08</v>
-      </c>
-      <c r="G7" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-0.0007</v>
+        <v>46.7</v>
+      </c>
+      <c r="G7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0011</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0197</v>
-      </c>
-      <c r="L7">
-        <v>7.18</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.151</v>
-      </c>
-      <c r="N7">
-        <v>11.88</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.2772</v>
+        <v>0.0242</v>
+      </c>
+      <c r="L7" s="4">
+        <v>-0.83</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-0.0177</v>
+      </c>
+      <c r="N7" s="4">
+        <v>-6.8</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-0.1286</v>
       </c>
       <c r="Q7" t="s">
         <v>20</v>
@@ -983,43 +983,43 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>664.6</v>
+        <v>69.64</v>
       </c>
       <c r="D8">
-        <v>661.6</v>
+        <v>69.64</v>
       </c>
       <c r="E8">
-        <v>661.2</v>
+        <v>67.24</v>
       </c>
       <c r="F8">
-        <v>667</v>
+        <v>69.64</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0045</v>
+        <v>0.0217</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8">
-        <v>79.2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.1453</v>
-      </c>
-      <c r="L8">
-        <v>79.2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.1453</v>
-      </c>
-      <c r="N8">
-        <v>155.3</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.3312</v>
+      <c r="J8" s="4">
+        <v>-8.08</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-0.1055</v>
+      </c>
+      <c r="L8" s="4">
+        <v>-19.28</v>
+      </c>
+      <c r="M8" s="5">
+        <v>-0.2196</v>
+      </c>
+      <c r="N8" s="4">
+        <v>-23.54</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-0.2557</v>
       </c>
       <c r="Q8" t="s">
         <v>20</v>
@@ -1033,43 +1033,43 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>113.82</v>
+        <v>664.6</v>
       </c>
       <c r="D9">
-        <v>113.82</v>
+        <v>664.6</v>
       </c>
       <c r="E9">
-        <v>113.18</v>
+        <v>648.8</v>
       </c>
       <c r="F9">
-        <v>114.16</v>
+        <v>665</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="J9">
-        <v>13.02</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.1297</v>
-      </c>
-      <c r="L9">
-        <v>13.38</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.1338</v>
+      <c r="J9" s="4">
+        <v>-95.8</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-0.1281</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-100.6</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-0.1336</v>
       </c>
       <c r="N9">
-        <v>8.04</v>
+        <v>109.8</v>
       </c>
       <c r="O9" s="1">
-        <v>0.0763</v>
+        <v>0.2024</v>
       </c>
       <c r="Q9" t="s">
         <v>20</v>
@@ -1083,43 +1083,43 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>83.84</v>
+        <v>121.04</v>
       </c>
       <c r="D10">
-        <v>83.32</v>
+        <v>121.04</v>
       </c>
       <c r="E10">
-        <v>83.49</v>
+        <v>117.84</v>
       </c>
       <c r="F10">
-        <v>84.14</v>
+        <v>121.04</v>
       </c>
       <c r="G10">
-        <v>0.52</v>
+        <v>2.14</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0062</v>
+        <v>0.018</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="J10">
-        <v>2.18</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.0279</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-0.91</v>
-      </c>
-      <c r="M10" s="5">
-        <v>-0.0112</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-3.76</v>
-      </c>
-      <c r="O10" s="5">
-        <v>-0.0447</v>
+      <c r="J10" s="4">
+        <v>-10.88</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-0.0854</v>
+      </c>
+      <c r="L10">
+        <v>2.08</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.0182</v>
+      </c>
+      <c r="N10">
+        <v>15.08</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1487</v>
       </c>
       <c r="Q10" t="s">
         <v>20</v>
@@ -1133,43 +1133,43 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>1395</v>
+        <v>80.78</v>
       </c>
       <c r="D11">
-        <v>1387.5</v>
+        <v>80.78</v>
       </c>
       <c r="E11">
-        <v>1386.5</v>
+        <v>80.17</v>
       </c>
       <c r="F11">
-        <v>1396.5</v>
+        <v>80.92</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>0.17</v>
       </c>
       <c r="H11" s="1">
-        <v>0.0054</v>
+        <v>0.0021</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
-        <v>276</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.2502</v>
+      <c r="J11" s="4">
+        <v>-0.36</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-0.0045</v>
       </c>
       <c r="L11">
-        <v>391.6</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>0.3966</v>
+        <v>0.0258</v>
       </c>
       <c r="N11">
-        <v>546</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="1">
-        <v>0.6555</v>
+        <v>0.0025</v>
       </c>
       <c r="Q11" t="s">
         <v>20</v>
@@ -1183,43 +1183,43 @@
         <v>40</v>
       </c>
       <c r="C12">
-        <v>115.1</v>
+        <v>1215.5</v>
       </c>
       <c r="D12">
-        <v>114.6</v>
+        <v>1215.5</v>
       </c>
       <c r="E12">
-        <v>114.65</v>
+        <v>1184</v>
       </c>
       <c r="F12">
-        <v>115.55</v>
+        <v>1217.5</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0044</v>
+        <v>0.0142</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12">
-        <v>25.94</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.2903</v>
-      </c>
-      <c r="L12">
-        <v>39.52</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.5215</v>
+      <c r="J12" s="4">
+        <v>-292.5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-0.1995</v>
+      </c>
+      <c r="L12" s="4">
+        <v>-430.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>-0.2684</v>
       </c>
       <c r="N12">
-        <v>50.34</v>
+        <v>45.5</v>
       </c>
       <c r="O12" s="1">
-        <v>0.7749</v>
+        <v>0.0403</v>
       </c>
       <c r="Q12" t="s">
         <v>20</v>
@@ -1233,43 +1233,43 @@
         <v>42</v>
       </c>
       <c r="C13">
-        <v>341.7</v>
+        <v>118.6</v>
       </c>
       <c r="D13">
-        <v>342</v>
+        <v>118.6</v>
       </c>
       <c r="E13">
-        <v>340.3</v>
+        <v>115</v>
       </c>
       <c r="F13">
-        <v>343.85</v>
-      </c>
-      <c r="G13" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>-0.0009</v>
+        <v>119.3</v>
+      </c>
+      <c r="G13">
+        <v>2.3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.0198</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.0784</v>
+      <c r="J13" s="4">
+        <v>-16.85</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-0.1283</v>
       </c>
       <c r="L13">
-        <v>23.75</v>
+        <v>14.97</v>
       </c>
       <c r="M13" s="1">
-        <v>0.0776</v>
-      </c>
-      <c r="N13" s="4">
-        <v>-3.2</v>
-      </c>
-      <c r="O13" s="5">
-        <v>-0.0096</v>
+        <v>0.1505</v>
+      </c>
+      <c r="N13">
+        <v>24.61</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.2739</v>
       </c>
       <c r="Q13" t="s">
         <v>20</v>
@@ -1283,43 +1283,43 @@
         <v>44</v>
       </c>
       <c r="C14">
-        <v>2817</v>
+        <v>366.5</v>
       </c>
       <c r="D14">
-        <v>2805</v>
+        <v>366.5</v>
       </c>
       <c r="E14">
-        <v>2805</v>
+        <v>359.95</v>
       </c>
       <c r="F14">
-        <v>2826</v>
+        <v>367.1</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="H14" s="1">
-        <v>0.0043</v>
+        <v>0.0189</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
-        <v>129</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.0483</v>
+      <c r="J14" s="4">
+        <v>-21.05</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-0.0556</v>
       </c>
       <c r="L14">
-        <v>174</v>
+        <v>14.95</v>
       </c>
       <c r="M14" s="1">
-        <v>0.0663</v>
+        <v>0.0436</v>
       </c>
       <c r="N14">
-        <v>506</v>
+        <v>46.85</v>
       </c>
       <c r="O14" s="1">
-        <v>0.2206</v>
+        <v>0.1506</v>
       </c>
       <c r="Q14" t="s">
         <v>20</v>
@@ -1333,43 +1333,43 @@
         <v>46</v>
       </c>
       <c r="C15">
-        <v>293.8</v>
+        <v>2668</v>
       </c>
       <c r="D15">
-        <v>294.1</v>
+        <v>2668</v>
       </c>
       <c r="E15">
-        <v>292.6</v>
+        <v>2635</v>
       </c>
       <c r="F15">
-        <v>296.1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-0.3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>-0.001</v>
+        <v>2672</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0008</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="J15">
-        <v>35.2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.1368</v>
-      </c>
-      <c r="L15">
-        <v>65.2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.2867</v>
-      </c>
-      <c r="N15">
-        <v>120.3</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.6982</v>
+      <c r="J15" s="4">
+        <v>-355</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-0.1196</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-243</v>
+      </c>
+      <c r="M15" s="5">
+        <v>-0.0851</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-118</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-0.0432</v>
       </c>
       <c r="Q15" t="s">
         <v>20</v>
@@ -1383,43 +1383,43 @@
         <v>48</v>
       </c>
       <c r="C16">
-        <v>322.5</v>
+        <v>311.5</v>
       </c>
       <c r="D16">
-        <v>326.3</v>
+        <v>311.5</v>
       </c>
       <c r="E16">
-        <v>322.1</v>
+        <v>302.8</v>
       </c>
       <c r="F16">
-        <v>327.7</v>
-      </c>
-      <c r="G16" s="4">
-        <v>-3.8</v>
-      </c>
-      <c r="H16" s="5">
-        <v>-0.0116</v>
+        <v>313.6</v>
+      </c>
+      <c r="G16">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0039</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16">
-        <v>47</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.1648</v>
-      </c>
-      <c r="L16">
-        <v>99.3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.4264</v>
+      <c r="J16" s="4">
+        <v>-67.9</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-0.1838</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-22.3</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-0.0688</v>
       </c>
       <c r="N16">
-        <v>129.1</v>
+        <v>38.7</v>
       </c>
       <c r="O16" s="1">
-        <v>0.6356</v>
+        <v>0.1472</v>
       </c>
       <c r="Q16" t="s">
         <v>20</v>
@@ -1433,43 +1433,43 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>457.3</v>
+        <v>582.4</v>
       </c>
       <c r="D17">
-        <v>457</v>
+        <v>582.4</v>
       </c>
       <c r="E17">
-        <v>456.4</v>
+        <v>578.6</v>
       </c>
       <c r="F17">
-        <v>459.3</v>
-      </c>
-      <c r="G17">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.0007</v>
+        <v>585.8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-0.0007</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
       <c r="J17">
-        <v>1.9</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1">
-        <v>0.0042</v>
+        <v>0.0379</v>
       </c>
       <c r="L17">
-        <v>55.9</v>
+        <v>99.7</v>
       </c>
       <c r="M17" s="1">
-        <v>0.1385</v>
+        <v>0.2094</v>
       </c>
       <c r="N17">
-        <v>93.29</v>
+        <v>124.8</v>
       </c>
       <c r="O17" s="1">
-        <v>0.2547</v>
+        <v>0.2767</v>
       </c>
       <c r="Q17" t="s">
         <v>20</v>
@@ -1483,43 +1483,43 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>84.8</v>
+        <v>85.84</v>
       </c>
       <c r="D18">
-        <v>84.48</v>
+        <v>85.84</v>
       </c>
       <c r="E18">
-        <v>84.46</v>
+        <v>85.1</v>
       </c>
       <c r="F18">
-        <v>85.14</v>
+        <v>86.18</v>
       </c>
       <c r="G18">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="H18" s="1">
-        <v>0.0038</v>
+        <v>0.0019</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="4">
-        <v>-6.52</v>
+        <v>-4.06</v>
       </c>
       <c r="K18" s="5">
-        <v>-0.0714</v>
+        <v>-0.0453</v>
       </c>
       <c r="L18">
-        <v>2.78</v>
+        <v>4.98</v>
       </c>
       <c r="M18" s="1">
-        <v>0.0339</v>
-      </c>
-      <c r="N18">
-        <v>7.36</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.095</v>
+        <v>0.0618</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-5.26</v>
+      </c>
+      <c r="O18" s="5">
+        <v>-0.0579</v>
       </c>
       <c r="Q18" t="s">
         <v>20</v>
@@ -1533,43 +1533,43 @@
         <v>54</v>
       </c>
       <c r="C19">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="D19">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="E19">
-        <v>523.2</v>
+        <v>548.2</v>
       </c>
       <c r="F19">
-        <v>525.8</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.0038</v>
+        <v>555</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-5.4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-0.0097</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
       </c>
       <c r="J19">
-        <v>46.8</v>
+        <v>32</v>
       </c>
       <c r="K19" s="1">
-        <v>0.0989</v>
+        <v>0.0618</v>
       </c>
       <c r="L19">
-        <v>41.3</v>
+        <v>14.2</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0863</v>
+        <v>0.0265</v>
       </c>
       <c r="N19">
-        <v>13.8</v>
+        <v>64.4</v>
       </c>
       <c r="O19" s="1">
-        <v>0.0273</v>
+        <v>0.1326</v>
       </c>
       <c r="Q19" t="s">
         <v>20</v>
@@ -1583,43 +1583,43 @@
         <v>56</v>
       </c>
       <c r="C20">
-        <v>14.62</v>
+        <v>17.22</v>
       </c>
       <c r="D20">
-        <v>14.58</v>
+        <v>17.22</v>
       </c>
       <c r="E20">
-        <v>14.54</v>
+        <v>16.99</v>
       </c>
       <c r="F20">
-        <v>14.68</v>
+        <v>17.27</v>
       </c>
       <c r="G20">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="H20" s="1">
-        <v>0.0024</v>
+        <v>0.0085</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
       <c r="J20">
-        <v>0.21</v>
+        <v>0.89</v>
       </c>
       <c r="K20" s="1">
-        <v>0.0141</v>
+        <v>0.0548</v>
       </c>
       <c r="L20">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="M20" s="1">
-        <v>0.1423</v>
+        <v>0.1123</v>
       </c>
       <c r="N20">
-        <v>3.67</v>
+        <v>2.51</v>
       </c>
       <c r="O20" s="1">
-        <v>0.3312</v>
+        <v>0.1725</v>
       </c>
       <c r="Q20" t="s">
         <v>20</v>
@@ -1633,43 +1633,43 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>371.5</v>
+        <v>444.8</v>
       </c>
       <c r="D21">
-        <v>370.2</v>
+        <v>444.8</v>
       </c>
       <c r="E21">
-        <v>370.3</v>
+        <v>439.6</v>
       </c>
       <c r="F21">
-        <v>372.9</v>
+        <v>444.8</v>
       </c>
       <c r="G21">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H21" s="1">
-        <v>0.0035</v>
+        <v>0.0086</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="4">
-        <v>-23.7</v>
-      </c>
-      <c r="K21" s="5">
-        <v>-0.0597</v>
+      <c r="J21">
+        <v>44.2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.1128</v>
       </c>
       <c r="L21">
-        <v>9.5</v>
+        <v>47.5</v>
       </c>
       <c r="M21" s="1">
-        <v>0.0261</v>
+        <v>0.1223</v>
       </c>
       <c r="N21">
-        <v>31.9</v>
+        <v>44.7</v>
       </c>
       <c r="O21" s="1">
-        <v>0.0935</v>
+        <v>0.1142</v>
       </c>
       <c r="Q21" t="s">
         <v>20</v>
